--- a/rawdata/TableGalapagos.xlsx
+++ b/rawdata/TableGalapagos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date (end)</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>Q (km3/yr)</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Galapagos</t>
   </si>
 </sst>
 </file>
@@ -97,15 +91,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -116,10 +107,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -420,9 +411,7 @@
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -442,38 +431,36 @@
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>32402.0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.2E7</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>1.2E7</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6">
         <v>1.0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>1.0</v>
       </c>
       <c r="I3" s="7">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>32402.0</v>
       </c>
       <c r="K3" s="8">
         <v>45420.0</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>0.024016903</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -493,23 +480,23 @@
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>33352.0</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4000000.0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1.6E7</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -530,14 +517,14 @@
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>34797.0</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>5.53E7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>7.13E7</v>
       </c>
       <c r="F5" s="1"/>
@@ -567,14 +554,14 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>36089.0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.1000000000000001E8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1.813E8</v>
       </c>
       <c r="F6" s="1"/>
@@ -604,14 +591,14 @@
       <c r="A7" s="1">
         <v>5.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>38501.0</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.88E7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.001E8</v>
       </c>
       <c r="F7" s="1"/>
@@ -641,14 +628,14 @@
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>38655.0</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>1.47E8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3.471E8</v>
       </c>
       <c r="F8" s="1"/>
@@ -676,16 +663,16 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>39616.0</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5.86710922148437E7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>4.0577109221483994E8</v>
       </c>
       <c r="F9" s="1"/>
@@ -713,16 +700,16 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>39931.0</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>5.7E7</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4.6277109221483994E8</v>
       </c>
       <c r="F10" s="1"/>
@@ -750,16 +737,16 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>42523.0</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.16E8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>5.787710922148399E8</v>
       </c>
       <c r="F11" s="1"/>
@@ -787,16 +774,16 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>42985.0</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>1.17702024411621E7</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>5.905412946560099E8</v>
       </c>
       <c r="F12" s="1"/>
@@ -824,16 +811,16 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>43272.0</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>6450499.87091159</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>5.969917945269201E8</v>
       </c>
       <c r="F13" s="1"/>
@@ -861,16 +848,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>43335.0</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>1.867E8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>7.836917945269201E8</v>
       </c>
       <c r="F14" s="1"/>
@@ -898,16 +885,16 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>43843.0</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>2802850.98266601</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>7.864946455095799E8</v>
       </c>
       <c r="F15" s="1"/>
@@ -935,16 +922,16 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>44665.0</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>2.3E7</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>8.094946455095799E8</v>
       </c>
       <c r="F16" s="1"/>
@@ -972,16 +959,16 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>45420.0</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>5.85E7</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>8.679946455095799E8</v>
       </c>
       <c r="F17" s="1"/>
@@ -1012,7 +999,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1041,7 +1028,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1070,7 +1057,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1099,7 +1086,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1128,7 +1115,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1157,7 +1144,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1186,7 +1173,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1215,7 +1202,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1244,7 +1231,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1273,7 +1260,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1302,7 +1289,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1331,7 +1318,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1360,7 +1347,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1389,7 +1376,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1418,7 +1405,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1447,7 +1434,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1476,7 +1463,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1505,7 +1492,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1534,7 +1521,7 @@
       <c r="B36" s="8"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1563,7 +1550,7 @@
       <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1592,7 +1579,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1621,7 +1608,7 @@
       <c r="B39" s="8"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1650,7 +1637,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1679,7 +1666,7 @@
       <c r="B41" s="8"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1708,7 +1695,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1737,7 +1724,7 @@
       <c r="B43" s="8"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1766,7 +1753,7 @@
       <c r="B44" s="8"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1795,7 +1782,7 @@
       <c r="B45" s="8"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1824,7 +1811,7 @@
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1853,7 +1840,7 @@
       <c r="B47" s="8"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1882,7 +1869,7 @@
       <c r="B48" s="8"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1911,7 +1898,7 @@
       <c r="B49" s="8"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1940,7 +1927,7 @@
       <c r="B50" s="8"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1969,7 +1956,7 @@
       <c r="B51" s="8"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1998,7 +1985,7 @@
       <c r="B52" s="8"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2027,7 +2014,7 @@
       <c r="B53" s="8"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2056,7 +2043,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2085,7 +2072,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2114,7 +2101,7 @@
       <c r="B56" s="8"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2143,7 +2130,7 @@
       <c r="B57" s="8"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2172,7 +2159,7 @@
       <c r="B58" s="8"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2201,7 +2188,7 @@
       <c r="B59" s="8"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2230,7 +2217,7 @@
       <c r="B60" s="8"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2259,7 +2246,7 @@
       <c r="B61" s="8"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2288,7 +2275,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2317,7 +2304,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2346,7 +2333,7 @@
       <c r="B64" s="8"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2375,7 +2362,7 @@
       <c r="B65" s="8"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="6"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2404,7 +2391,7 @@
       <c r="B66" s="8"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="6"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2433,7 +2420,7 @@
       <c r="B67" s="8"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2462,7 +2449,7 @@
       <c r="B68" s="8"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2491,7 +2478,7 @@
       <c r="B69" s="8"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -2520,7 +2507,7 @@
       <c r="B70" s="8"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2549,7 +2536,7 @@
       <c r="B71" s="8"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2578,7 +2565,7 @@
       <c r="B72" s="8"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="6"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2607,7 +2594,7 @@
       <c r="B73" s="8"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="6"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2636,7 +2623,7 @@
       <c r="B74" s="8"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2665,7 +2652,7 @@
       <c r="B75" s="8"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="6"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2694,7 +2681,7 @@
       <c r="B76" s="8"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="6"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2723,7 +2710,7 @@
       <c r="B77" s="8"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2752,7 +2739,7 @@
       <c r="B78" s="8"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2781,7 +2768,7 @@
       <c r="B79" s="8"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="6"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2810,7 +2797,7 @@
       <c r="B80" s="8"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2839,7 +2826,7 @@
       <c r="B81" s="8"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2868,7 +2855,7 @@
       <c r="B82" s="8"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2897,7 +2884,7 @@
       <c r="B83" s="8"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2926,7 +2913,7 @@
       <c r="B84" s="8"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2955,7 +2942,7 @@
       <c r="B85" s="8"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="6"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2984,7 +2971,7 @@
       <c r="B86" s="8"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3013,7 +3000,7 @@
       <c r="B87" s="8"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3042,7 +3029,7 @@
       <c r="B88" s="8"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3071,7 +3058,7 @@
       <c r="B89" s="8"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -3100,7 +3087,7 @@
       <c r="B90" s="8"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -3129,7 +3116,7 @@
       <c r="B91" s="8"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3158,7 +3145,7 @@
       <c r="B92" s="8"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="6"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3187,7 +3174,7 @@
       <c r="B93" s="8"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="6"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -3216,7 +3203,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="6"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -3245,7 +3232,7 @@
       <c r="B95" s="8"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -3274,7 +3261,7 @@
       <c r="B96" s="8"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="6"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -3303,7 +3290,7 @@
       <c r="B97" s="8"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -3332,7 +3319,7 @@
       <c r="B98" s="8"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -3361,7 +3348,7 @@
       <c r="B99" s="8"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -3390,7 +3377,7 @@
       <c r="B100" s="8"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -3419,7 +3406,7 @@
       <c r="B101" s="8"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -3448,7 +3435,7 @@
       <c r="B102" s="8"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="6"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -3477,7 +3464,7 @@
       <c r="B103" s="8"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -3506,7 +3493,7 @@
       <c r="B104" s="8"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -3535,7 +3522,7 @@
       <c r="B105" s="8"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -3564,7 +3551,7 @@
       <c r="B106" s="8"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="6"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -3593,7 +3580,7 @@
       <c r="B107" s="8"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="6"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -3622,7 +3609,7 @@
       <c r="B108" s="8"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="6"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -3651,7 +3638,7 @@
       <c r="B109" s="8"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="6"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -3680,7 +3667,7 @@
       <c r="B110" s="8"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -3709,7 +3696,7 @@
       <c r="B111" s="8"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -3738,7 +3725,7 @@
       <c r="B112" s="8"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -3767,7 +3754,7 @@
       <c r="B113" s="8"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="6"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -3796,7 +3783,7 @@
       <c r="B114" s="8"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="6"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -3825,7 +3812,7 @@
       <c r="B115" s="8"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="6"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -3854,7 +3841,7 @@
       <c r="B116" s="8"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="6"/>
+      <c r="E116" s="5"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -3883,7 +3870,7 @@
       <c r="B117" s="8"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="6"/>
+      <c r="E117" s="5"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -3912,7 +3899,7 @@
       <c r="B118" s="8"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="6"/>
+      <c r="E118" s="5"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
